--- a/SweepsByMayor.xlsx
+++ b/SweepsByMayor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guy\Documents\R\Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E6D25ED-AC54-4481-8CEA-B052A0B17AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE77EF8F-51CB-4FA3-8673-2CA1679BA2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300"/>
   </bookViews>
@@ -889,9 +889,6 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="11.26953125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -922,7 +919,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>5633</v>
+        <v>6892</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
